--- a/guru99/src/test/resources/guru99.xlsx
+++ b/guru99/src/test/resources/guru99.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tubby\eclipse-workspace\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F32739-39CA-46B6-8217-E67D3A399545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FA0CDEC1-E65E-4C7C-B9F3-12C1A4B29EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="-24" windowWidth="19248" windowHeight="10248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-402" yWindow="0" windowWidth="19392" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>mngr527275</t>
   </si>
@@ -115,6 +111,12 @@
   </si>
   <si>
     <t>Unsmdkdq</t>
+  </si>
+  <si>
+    <t>mngr541911</t>
+  </si>
+  <si>
+    <t>naqyvab</t>
   </si>
 </sst>
 </file>
@@ -442,7 +444,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -497,10 +499,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
